--- a/state_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
+++ b/state_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U256"/>
+  <dimension ref="A1:U277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>0.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33140028235072</v>
+        <v>1.29589783792135</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1995</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -584,10 +584,10 @@
         <v>2.015</v>
       </c>
       <c r="M2" t="n">
-        <v>2.8158</v>
+        <v>2.6</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.768</v>
       </c>
       <c r="O2" t="n">
         <v>1811307.816</v>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0109368019689941</v>
+        <v>0.0109525081976126</v>
       </c>
       <c r="H3" t="n">
         <v>0.028</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0109368019689941</v>
+        <v>0.0109525081976126</v>
       </c>
       <c r="H4" t="n">
         <v>0.028</v>
@@ -813,7 +813,7 @@
         <v>112</v>
       </c>
       <c r="G5" t="n">
-        <v>2070.26690557213</v>
+        <v>2070.26434572519</v>
       </c>
       <c r="H5" t="n">
         <v>57943</v>
@@ -898,7 +898,7 @@
         <v>112</v>
       </c>
       <c r="G6" t="n">
-        <v>2070.26690557213</v>
+        <v>2070.26434572519</v>
       </c>
       <c r="H6" t="n">
         <v>57943</v>
@@ -983,7 +983,7 @@
         <v>112</v>
       </c>
       <c r="G7" t="n">
-        <v>2070.26690557213</v>
+        <v>2070.26434572519</v>
       </c>
       <c r="H7" t="n">
         <v>57943</v>
@@ -1068,7 +1068,7 @@
         <v>112</v>
       </c>
       <c r="G8" t="n">
-        <v>2070.26690557213</v>
+        <v>2070.26434572519</v>
       </c>
       <c r="H8" t="n">
         <v>57943</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00333</v>
+        <v>0.00335</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0058055871924096</v>
+        <v>0.0058311516234771</v>
       </c>
       <c r="H9" t="n">
         <v>0.040426751891162</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00557</v>
+        <v>0.00567</v>
       </c>
       <c r="M9" t="n">
         <v>0.01017</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00333</v>
+        <v>0.00335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0058055871924096</v>
+        <v>0.0058311516234771</v>
       </c>
       <c r="H10" t="n">
         <v>0.040426751891162</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00557</v>
+        <v>0.00567</v>
       </c>
       <c r="M10" t="n">
         <v>0.01017</v>
@@ -1315,7 +1315,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.181817736424999</v>
+        <v>0.181898886584848</v>
       </c>
       <c r="H11" t="n">
         <v>3.47</v>
@@ -1326,7 +1326,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.00541</v>
+        <v>0.00565</v>
       </c>
       <c r="M11" t="n">
         <v>0.19523</v>
@@ -1396,7 +1396,7 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.181817736424999</v>
+        <v>0.181898886584848</v>
       </c>
       <c r="H12" t="n">
         <v>3.47</v>
@@ -1407,7 +1407,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.00541</v>
+        <v>0.00565</v>
       </c>
       <c r="M12" t="n">
         <v>0.19523</v>
@@ -1473,7 +1473,7 @@
         <v>0.061</v>
       </c>
       <c r="G13" t="n">
-        <v>0.162098449328012</v>
+        <v>0.162128846528449</v>
       </c>
       <c r="H13" t="n">
         <v>3.475</v>
@@ -1484,7 +1484,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.014</v>
+        <v>0.01406</v>
       </c>
       <c r="M13" t="n">
         <v>0.20481</v>
@@ -1550,7 +1550,7 @@
         <v>0.061</v>
       </c>
       <c r="G14" t="n">
-        <v>0.162098449328012</v>
+        <v>0.162128846528449</v>
       </c>
       <c r="H14" t="n">
         <v>3.475</v>
@@ -1561,7 +1561,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.014</v>
+        <v>0.01406</v>
       </c>
       <c r="M14" t="n">
         <v>0.20481</v>
@@ -1631,13 +1631,13 @@
         <v>0.43</v>
       </c>
       <c r="G15" t="n">
-        <v>1.27002946666431</v>
+        <v>1.2323081194581</v>
       </c>
       <c r="H15" t="n">
         <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.02514</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1645,10 +1645,10 @@
         <v>2.3</v>
       </c>
       <c r="M15" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="N15" t="n">
-        <v>3.864</v>
+        <v>3.566</v>
       </c>
       <c r="O15" t="n">
         <v>1811307.816</v>
@@ -1712,7 +1712,7 @@
         <v>0.008</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009687807524099199</v>
+        <v>0.0097065820049245</v>
       </c>
       <c r="H16" t="n">
         <v>0.028</v>
@@ -1793,7 +1793,7 @@
         <v>0.008</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009687807524099199</v>
+        <v>0.0097065820049245</v>
       </c>
       <c r="H17" t="n">
         <v>0.028</v>
@@ -1874,7 +1874,7 @@
         <v>98</v>
       </c>
       <c r="G18" t="n">
-        <v>2064.40516959847</v>
+        <v>2064.40286554071</v>
       </c>
       <c r="H18" t="n">
         <v>57943</v>
@@ -1959,7 +1959,7 @@
         <v>98</v>
       </c>
       <c r="G19" t="n">
-        <v>2064.40516959847</v>
+        <v>2064.40286554071</v>
       </c>
       <c r="H19" t="n">
         <v>57943</v>
@@ -2044,7 +2044,7 @@
         <v>98</v>
       </c>
       <c r="G20" t="n">
-        <v>2064.40516959847</v>
+        <v>2064.40286554071</v>
       </c>
       <c r="H20" t="n">
         <v>57943</v>
@@ -2129,7 +2129,7 @@
         <v>98</v>
       </c>
       <c r="G21" t="n">
-        <v>2064.40516959847</v>
+        <v>2064.40286554071</v>
       </c>
       <c r="H21" t="n">
         <v>57943</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.00427</v>
+        <v>0.0044</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0064196320385533</v>
+        <v>0.0064433061635958</v>
       </c>
       <c r="H22" t="n">
         <v>0.040426751891162</v>
@@ -2225,10 +2225,10 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.00492</v>
+        <v>0.00512</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01044</v>
+        <v>0.01045</v>
       </c>
       <c r="N22" t="n">
         <v>0.01635</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.00427</v>
+        <v>0.0044</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0064196320385533</v>
+        <v>0.0064433061635958</v>
       </c>
       <c r="H23" t="n">
         <v>0.040426751891162</v>
@@ -2306,10 +2306,10 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.00492</v>
+        <v>0.00512</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01044</v>
+        <v>0.01045</v>
       </c>
       <c r="N23" t="n">
         <v>0.01635</v>
@@ -2376,7 +2376,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.108563836913266</v>
+        <v>0.108622186932516</v>
       </c>
       <c r="H24" t="n">
         <v>0.325</v>
@@ -2387,7 +2387,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00689</v>
+        <v>0.00726</v>
       </c>
       <c r="M24" t="n">
         <v>0.1997</v>
@@ -2457,7 +2457,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>0.108563836913266</v>
+        <v>0.108622186932516</v>
       </c>
       <c r="H25" t="n">
         <v>0.325</v>
@@ -2468,7 +2468,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.00689</v>
+        <v>0.00726</v>
       </c>
       <c r="M25" t="n">
         <v>0.1997</v>
@@ -2534,7 +2534,7 @@
         <v>0.0795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.112996665387008</v>
+        <v>0.113019570126851</v>
       </c>
       <c r="H26" t="n">
         <v>0.409</v>
@@ -2611,7 +2611,7 @@
         <v>0.0795</v>
       </c>
       <c r="G27" t="n">
-        <v>0.112996665387008</v>
+        <v>0.113019570126851</v>
       </c>
       <c r="H27" t="n">
         <v>0.409</v>
@@ -2842,7 +2842,7 @@
         <v>0.026</v>
       </c>
       <c r="G30" t="n">
-        <v>0.143426732485992</v>
+        <v>0.143429050258408</v>
       </c>
       <c r="H30" t="n">
         <v>4.114</v>
@@ -2919,7 +2919,7 @@
         <v>0.026</v>
       </c>
       <c r="G31" t="n">
-        <v>0.143426732485992</v>
+        <v>0.143429050258408</v>
       </c>
       <c r="H31" t="n">
         <v>4.114</v>
@@ -3000,13 +3000,13 @@
         <v>0.445</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4435548727247</v>
+        <v>1.40240431213611</v>
       </c>
       <c r="H32" t="n">
         <v>5.8</v>
       </c>
       <c r="I32" t="n">
-        <v>4.62599</v>
+        <v>4.59</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3014,10 +3014,10 @@
         <v>2.45</v>
       </c>
       <c r="M32" t="n">
-        <v>3.502</v>
+        <v>3.108</v>
       </c>
       <c r="N32" t="n">
-        <v>4.196</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
         <v>1811307.816</v>
@@ -3081,7 +3081,7 @@
         <v>0.007</v>
       </c>
       <c r="G33" t="n">
-        <v>0.009150301785362001</v>
+        <v>0.009169372233665001</v>
       </c>
       <c r="H33" t="n">
         <v>0.028</v>
@@ -3162,7 +3162,7 @@
         <v>0.007</v>
       </c>
       <c r="G34" t="n">
-        <v>0.009150301785362001</v>
+        <v>0.009169372233665001</v>
       </c>
       <c r="H34" t="n">
         <v>0.028</v>
@@ -3243,7 +3243,7 @@
         <v>116</v>
       </c>
       <c r="G35" t="n">
-        <v>1832.58038113962</v>
+        <v>1832.57891999324</v>
       </c>
       <c r="H35" t="n">
         <v>57943</v>
@@ -3328,7 +3328,7 @@
         <v>116</v>
       </c>
       <c r="G36" t="n">
-        <v>1832.58038113962</v>
+        <v>1832.57891999324</v>
       </c>
       <c r="H36" t="n">
         <v>57943</v>
@@ -3413,7 +3413,7 @@
         <v>116</v>
       </c>
       <c r="G37" t="n">
-        <v>1832.58038113962</v>
+        <v>1832.57891999324</v>
       </c>
       <c r="H37" t="n">
         <v>57943</v>
@@ -3498,7 +3498,7 @@
         <v>116</v>
       </c>
       <c r="G38" t="n">
-        <v>1832.58038113962</v>
+        <v>1832.57891999324</v>
       </c>
       <c r="H38" t="n">
         <v>57943</v>
@@ -3583,7 +3583,7 @@
         <v>0.00509</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0071154635168745</v>
+        <v>0.0071305244254109</v>
       </c>
       <c r="H39" t="n">
         <v>0.0275021961944786</v>
@@ -3664,7 +3664,7 @@
         <v>0.00509</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0071154635168745</v>
+        <v>0.0071305244254109</v>
       </c>
       <c r="H40" t="n">
         <v>0.0275021961944786</v>
@@ -3745,7 +3745,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.103063371608975</v>
+        <v>0.103087084137702</v>
       </c>
       <c r="H41" t="n">
         <v>0.426</v>
@@ -3756,7 +3756,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.01069</v>
+        <v>0.01078</v>
       </c>
       <c r="M41" t="n">
         <v>0.19953</v>
@@ -3826,7 +3826,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>0.103063371608975</v>
+        <v>0.103087084137702</v>
       </c>
       <c r="H42" t="n">
         <v>0.426</v>
@@ -3837,7 +3837,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.01069</v>
+        <v>0.01078</v>
       </c>
       <c r="M42" t="n">
         <v>0.19953</v>
@@ -3903,7 +3903,7 @@
         <v>0.083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.110474576271186</v>
+        <v>0.11048813559322</v>
       </c>
       <c r="H43" t="n">
         <v>0.453</v>
@@ -3980,7 +3980,7 @@
         <v>0.083</v>
       </c>
       <c r="G44" t="n">
-        <v>0.110474576271186</v>
+        <v>0.11048813559322</v>
       </c>
       <c r="H44" t="n">
         <v>0.453</v>
@@ -4211,7 +4211,7 @@
         <v>0.026</v>
       </c>
       <c r="G47" t="n">
-        <v>0.154216109901484</v>
+        <v>0.154218388389621</v>
       </c>
       <c r="H47" t="n">
         <v>4.114</v>
@@ -4288,7 +4288,7 @@
         <v>0.026</v>
       </c>
       <c r="G48" t="n">
-        <v>0.154216109901484</v>
+        <v>0.154218388389621</v>
       </c>
       <c r="H48" t="n">
         <v>4.114</v>
@@ -4450,13 +4450,13 @@
         <v>0.455</v>
       </c>
       <c r="G50" t="n">
-        <v>1.83020208032082</v>
+        <v>1.83985657271385</v>
       </c>
       <c r="H50" t="n">
-        <v>10.3972993963672</v>
+        <v>10.9049862235177</v>
       </c>
       <c r="I50" t="n">
-        <v>6.44634</v>
+        <v>6.88069</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4464,7 +4464,7 @@
         <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>3.9775</v>
       </c>
       <c r="N50" t="n">
         <v>5.4</v>
@@ -4531,7 +4531,7 @@
         <v>0.007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0089628905918001</v>
+        <v>0.008978732973110999</v>
       </c>
       <c r="H51" t="n">
         <v>0.028</v>
@@ -4612,7 +4612,7 @@
         <v>0.007</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0089628905918001</v>
+        <v>0.008978732973110999</v>
       </c>
       <c r="H52" t="n">
         <v>0.028</v>
@@ -4693,7 +4693,7 @@
         <v>140</v>
       </c>
       <c r="G53" t="n">
-        <v>1761.55359501861</v>
+        <v>1761.55215863743</v>
       </c>
       <c r="H53" t="n">
         <v>57943</v>
@@ -4778,7 +4778,7 @@
         <v>140</v>
       </c>
       <c r="G54" t="n">
-        <v>1761.55359501861</v>
+        <v>1761.55215863743</v>
       </c>
       <c r="H54" t="n">
         <v>57943</v>
@@ -4863,7 +4863,7 @@
         <v>140</v>
       </c>
       <c r="G55" t="n">
-        <v>1761.55359501861</v>
+        <v>1761.55215863743</v>
       </c>
       <c r="H55" t="n">
         <v>57943</v>
@@ -4948,7 +4948,7 @@
         <v>140</v>
       </c>
       <c r="G56" t="n">
-        <v>1761.55359501861</v>
+        <v>1761.55215863743</v>
       </c>
       <c r="H56" t="n">
         <v>57943</v>
@@ -5110,7 +5110,7 @@
         <v>0.00503</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0068837791632069</v>
+        <v>0.0068874461790916</v>
       </c>
       <c r="H58" t="n">
         <v>0.0275021961944786</v>
@@ -5191,7 +5191,7 @@
         <v>0.00503</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0068837791632069</v>
+        <v>0.0068874461790916</v>
       </c>
       <c r="H59" t="n">
         <v>0.0275021961944786</v>
@@ -5272,7 +5272,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0833419647193592</v>
+        <v>0.083361408992916</v>
       </c>
       <c r="H60" t="n">
         <v>0.426</v>
@@ -5353,7 +5353,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0833419647193592</v>
+        <v>0.083361408992916</v>
       </c>
       <c r="H61" t="n">
         <v>0.426</v>
@@ -5430,7 +5430,7 @@
         <v>0.0775</v>
       </c>
       <c r="G62" t="n">
-        <v>0.10425</v>
+        <v>0.104228333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0.453</v>
@@ -5507,7 +5507,7 @@
         <v>0.0775</v>
       </c>
       <c r="G63" t="n">
-        <v>0.10425</v>
+        <v>0.104228333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0.453</v>
@@ -5738,7 +5738,7 @@
         <v>0.023</v>
       </c>
       <c r="G66" t="n">
-        <v>0.147962508069792</v>
+        <v>0.147964748583127</v>
       </c>
       <c r="H66" t="n">
         <v>4.114</v>
@@ -5815,7 +5815,7 @@
         <v>0.023</v>
       </c>
       <c r="G67" t="n">
-        <v>0.147962508069792</v>
+        <v>0.147964748583127</v>
       </c>
       <c r="H67" t="n">
         <v>4.114</v>
@@ -6054,13 +6054,13 @@
         <v>0.85</v>
       </c>
       <c r="G70" t="n">
-        <v>2.00656325888871</v>
+        <v>2.01715965297862</v>
       </c>
       <c r="H70" t="n">
-        <v>10.3972993963672</v>
+        <v>10.9049862235177</v>
       </c>
       <c r="I70" t="n">
-        <v>6.96342</v>
+        <v>7.74525</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6068,7 +6068,7 @@
         <v>3.55</v>
       </c>
       <c r="M70" t="n">
-        <v>4.22725</v>
+        <v>4.106</v>
       </c>
       <c r="N70" t="n">
         <v>5.098</v>
@@ -6135,7 +6135,7 @@
         <v>0.007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0087241682078917</v>
+        <v>0.0087338379621729</v>
       </c>
       <c r="H71" t="n">
         <v>0.028</v>
@@ -6216,7 +6216,7 @@
         <v>0.007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0087241682078917</v>
+        <v>0.0087338379621729</v>
       </c>
       <c r="H72" t="n">
         <v>0.028</v>
@@ -6714,7 +6714,7 @@
         <v>0.00504</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0069113563612401</v>
+        <v>0.0069138120528166</v>
       </c>
       <c r="H78" t="n">
         <v>0.0275021961944786</v>
@@ -6795,7 +6795,7 @@
         <v>0.00504</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0069113563612401</v>
+        <v>0.0069138120528166</v>
       </c>
       <c r="H79" t="n">
         <v>0.0275021961944786</v>
@@ -6876,7 +6876,7 @@
         <v>0.0579</v>
       </c>
       <c r="G80" t="n">
-        <v>0.07733830393279929</v>
+        <v>0.0773545074940967</v>
       </c>
       <c r="H80" t="n">
         <v>0.426</v>
@@ -6887,7 +6887,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00258</v>
+        <v>0.00266</v>
       </c>
       <c r="M80" t="n">
         <v>0.15564</v>
@@ -6957,7 +6957,7 @@
         <v>0.0579</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07733830393279929</v>
+        <v>0.0773545074940967</v>
       </c>
       <c r="H81" t="n">
         <v>0.426</v>
@@ -6968,7 +6968,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00258</v>
+        <v>0.00266</v>
       </c>
       <c r="M81" t="n">
         <v>0.15564</v>
@@ -7111,7 +7111,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0909666666666667</v>
+        <v>0.0909266666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0.453</v>
@@ -7125,7 +7125,7 @@
         <v>0.0135</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1611</v>
+        <v>0.1612</v>
       </c>
       <c r="N83" t="n">
         <v>0.2234</v>
@@ -7188,7 +7188,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0909666666666667</v>
+        <v>0.0909266666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0.453</v>
@@ -7202,7 +7202,7 @@
         <v>0.0135</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1611</v>
+        <v>0.1612</v>
       </c>
       <c r="N84" t="n">
         <v>0.2234</v>
@@ -7419,7 +7419,7 @@
         <v>0.019</v>
       </c>
       <c r="G87" t="n">
-        <v>0.144112508069792</v>
+        <v>0.144114748583127</v>
       </c>
       <c r="H87" t="n">
         <v>4.114</v>
@@ -7496,7 +7496,7 @@
         <v>0.019</v>
       </c>
       <c r="G88" t="n">
-        <v>0.144112508069792</v>
+        <v>0.144114748583127</v>
       </c>
       <c r="H88" t="n">
         <v>4.114</v>
@@ -7735,13 +7735,13 @@
         <v>1.125</v>
       </c>
       <c r="G91" t="n">
-        <v>2.48375527101618</v>
+        <v>2.54978694229807</v>
       </c>
       <c r="H91" t="n">
-        <v>10.3972993963672</v>
+        <v>10.9049862235177</v>
       </c>
       <c r="I91" t="n">
-        <v>9.19708</v>
+        <v>9.97822</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7752,7 +7752,7 @@
         <v>4.788</v>
       </c>
       <c r="N91" t="n">
-        <v>7.8166</v>
+        <v>8.608000000000001</v>
       </c>
       <c r="O91" t="n">
         <v>1811307.816</v>
@@ -7816,7 +7816,7 @@
         <v>0.008</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0089073687346318</v>
+        <v>0.0089138510174547</v>
       </c>
       <c r="H92" t="n">
         <v>0.031</v>
@@ -7897,7 +7897,7 @@
         <v>0.008</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0089073687346318</v>
+        <v>0.0089138510174547</v>
       </c>
       <c r="H93" t="n">
         <v>0.031</v>
@@ -7978,7 +7978,7 @@
         <v>150</v>
       </c>
       <c r="G94" t="n">
-        <v>595.302219770605</v>
+        <v>595.302065482673</v>
       </c>
       <c r="H94" t="n">
         <v>7900</v>
@@ -8063,7 +8063,7 @@
         <v>150</v>
       </c>
       <c r="G95" t="n">
-        <v>595.302219770605</v>
+        <v>595.302065482673</v>
       </c>
       <c r="H95" t="n">
         <v>7900</v>
@@ -8148,7 +8148,7 @@
         <v>150</v>
       </c>
       <c r="G96" t="n">
-        <v>595.302219770605</v>
+        <v>595.302065482673</v>
       </c>
       <c r="H96" t="n">
         <v>7900</v>
@@ -8233,7 +8233,7 @@
         <v>150</v>
       </c>
       <c r="G97" t="n">
-        <v>595.302219770605</v>
+        <v>595.302065482673</v>
       </c>
       <c r="H97" t="n">
         <v>7900</v>
@@ -8395,7 +8395,7 @@
         <v>0.00335</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0053828958305567</v>
+        <v>0.0053888710311297</v>
       </c>
       <c r="H99" t="n">
         <v>0.0275021961944786</v>
@@ -8406,7 +8406,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00267</v>
+        <v>0.00271</v>
       </c>
       <c r="M99" t="n">
         <v>0.01032</v>
@@ -8476,7 +8476,7 @@
         <v>0.00335</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0053828958305567</v>
+        <v>0.0053888710311297</v>
       </c>
       <c r="H100" t="n">
         <v>0.0275021961944786</v>
@@ -8487,7 +8487,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00267</v>
+        <v>0.00271</v>
       </c>
       <c r="M100" t="n">
         <v>0.01032</v>
@@ -8557,7 +8557,7 @@
         <v>0.05095</v>
       </c>
       <c r="G101" t="n">
-        <v>0.07374139949212059</v>
+        <v>0.07375449839823491</v>
       </c>
       <c r="H101" t="n">
         <v>0.426</v>
@@ -8638,7 +8638,7 @@
         <v>0.05095</v>
       </c>
       <c r="G102" t="n">
-        <v>0.07374139949212059</v>
+        <v>0.07375449839823491</v>
       </c>
       <c r="H102" t="n">
         <v>0.426</v>
@@ -8789,10 +8789,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.0615</v>
+        <v>0.06135</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0834787962957801</v>
+        <v>0.08346227919059671</v>
       </c>
       <c r="H104" t="n">
         <v>0.453</v>
@@ -8806,10 +8806,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M104" t="n">
-        <v>0.1745</v>
+        <v>0.17457</v>
       </c>
       <c r="N104" t="n">
-        <v>0.2184</v>
+        <v>0.21831</v>
       </c>
       <c r="O104" t="n">
         <v>1811307.816</v>
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.0615</v>
+        <v>0.06135</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0834787962957801</v>
+        <v>0.08346227919059671</v>
       </c>
       <c r="H105" t="n">
         <v>0.453</v>
@@ -8883,10 +8883,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="M105" t="n">
-        <v>0.1745</v>
+        <v>0.17457</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2184</v>
+        <v>0.21831</v>
       </c>
       <c r="O105" t="n">
         <v>1811307.816</v>
@@ -9100,7 +9100,7 @@
         <v>0.018</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0673625080697921</v>
+        <v>0.0673647485831274</v>
       </c>
       <c r="H108" t="n">
         <v>0.663</v>
@@ -9177,7 +9177,7 @@
         <v>0.018</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0673625080697921</v>
+        <v>0.0673647485831274</v>
       </c>
       <c r="H109" t="n">
         <v>0.663</v>
@@ -9416,13 +9416,13 @@
         <v>1.8</v>
       </c>
       <c r="G112" t="n">
-        <v>2.65429946703975</v>
+        <v>2.71186553943935</v>
       </c>
       <c r="H112" t="n">
-        <v>10.3972993963672</v>
+        <v>10.9049862235177</v>
       </c>
       <c r="I112" t="n">
-        <v>8.94342</v>
+        <v>9.79752</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9433,7 +9433,7 @@
         <v>4.874</v>
       </c>
       <c r="N112" t="n">
-        <v>6.78244</v>
+        <v>7.168</v>
       </c>
       <c r="O112" t="n">
         <v>1811307.816</v>
@@ -9497,7 +9497,7 @@
         <v>0.0075</v>
       </c>
       <c r="G113" t="n">
-        <v>0.009393027036269199</v>
+        <v>0.0093979154477135</v>
       </c>
       <c r="H113" t="n">
         <v>0.031</v>
@@ -9578,7 +9578,7 @@
         <v>0.0075</v>
       </c>
       <c r="G114" t="n">
-        <v>0.009393027036269199</v>
+        <v>0.0093979154477135</v>
       </c>
       <c r="H114" t="n">
         <v>0.031</v>
@@ -9659,7 +9659,7 @@
         <v>140</v>
       </c>
       <c r="G115" t="n">
-        <v>835.963849441095</v>
+        <v>835.963697724628</v>
       </c>
       <c r="H115" t="n">
         <v>15000</v>
@@ -9744,7 +9744,7 @@
         <v>140</v>
       </c>
       <c r="G116" t="n">
-        <v>835.963849441095</v>
+        <v>835.963697724628</v>
       </c>
       <c r="H116" t="n">
         <v>15000</v>
@@ -9829,7 +9829,7 @@
         <v>140</v>
       </c>
       <c r="G117" t="n">
-        <v>835.963849441095</v>
+        <v>835.963697724628</v>
       </c>
       <c r="H117" t="n">
         <v>15000</v>
@@ -9914,7 +9914,7 @@
         <v>140</v>
       </c>
       <c r="G118" t="n">
-        <v>835.963849441095</v>
+        <v>835.963697724628</v>
       </c>
       <c r="H118" t="n">
         <v>15000</v>
@@ -10073,10 +10073,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.00185</v>
+        <v>0.0019</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0041957556710762</v>
+        <v>0.0042152342088823</v>
       </c>
       <c r="H120" t="n">
         <v>0.0204627499207684</v>
@@ -10087,7 +10087,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00175</v>
+        <v>0.00181</v>
       </c>
       <c r="M120" t="n">
         <v>0.008699999999999999</v>
@@ -10154,10 +10154,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.00185</v>
+        <v>0.0019</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0041957556710762</v>
+        <v>0.0042152342088823</v>
       </c>
       <c r="H121" t="n">
         <v>0.0204627499207684</v>
@@ -10168,7 +10168,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00175</v>
+        <v>0.00181</v>
       </c>
       <c r="M121" t="n">
         <v>0.008699999999999999</v>
@@ -10238,7 +10238,7 @@
         <v>0.0309</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0688036716927576</v>
+        <v>0.06882255289518539</v>
       </c>
       <c r="H122" t="n">
         <v>0.426</v>
@@ -10319,7 +10319,7 @@
         <v>0.0309</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0688036716927576</v>
+        <v>0.06882255289518539</v>
       </c>
       <c r="H123" t="n">
         <v>0.426</v>
@@ -10470,27 +10470,27 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.0365</v>
+        <v>0.03665</v>
       </c>
       <c r="G125" t="n">
-        <v>0.077054059709957</v>
+        <v>0.0770493394744562</v>
       </c>
       <c r="H125" t="n">
         <v>0.453</v>
       </c>
       <c r="I125" t="n">
-        <v>0.217</v>
+        <v>0.21685</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="M125" t="n">
-        <v>0.1553</v>
+        <v>0.15533</v>
       </c>
       <c r="N125" t="n">
-        <v>0.2022</v>
+        <v>0.20199</v>
       </c>
       <c r="O125" t="n">
         <v>1811307.816</v>
@@ -10547,27 +10547,27 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.0365</v>
+        <v>0.03665</v>
       </c>
       <c r="G126" t="n">
-        <v>0.077054059709957</v>
+        <v>0.0770493394744562</v>
       </c>
       <c r="H126" t="n">
         <v>0.453</v>
       </c>
       <c r="I126" t="n">
-        <v>0.217</v>
+        <v>0.21685</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1553</v>
+        <v>0.15533</v>
       </c>
       <c r="N126" t="n">
-        <v>0.2022</v>
+        <v>0.20199</v>
       </c>
       <c r="O126" t="n">
         <v>1811307.816</v>
@@ -11097,13 +11097,13 @@
         <v>0.9</v>
       </c>
       <c r="G133" t="n">
-        <v>2.30372388328171</v>
+        <v>2.35848185458865</v>
       </c>
       <c r="H133" t="n">
-        <v>10.3972993963672</v>
+        <v>10.9049862235177</v>
       </c>
       <c r="I133" t="n">
-        <v>8.84196</v>
+        <v>9.725250000000001</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11114,7 +11114,7 @@
         <v>4.653</v>
       </c>
       <c r="N133" t="n">
-        <v>6.32978</v>
+        <v>6.553</v>
       </c>
       <c r="O133" t="n">
         <v>1811307.816</v>
@@ -11178,7 +11178,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>0.010227243704389</v>
+        <v>0.0102288775806205</v>
       </c>
       <c r="H134" t="n">
         <v>0.031</v>
@@ -11259,7 +11259,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>0.010227243704389</v>
+        <v>0.0102288775806205</v>
       </c>
       <c r="H135" t="n">
         <v>0.031</v>
@@ -11340,7 +11340,7 @@
         <v>129</v>
       </c>
       <c r="G136" t="n">
-        <v>634.505609601114</v>
+        <v>634.505455313181</v>
       </c>
       <c r="H136" t="n">
         <v>15000</v>
@@ -11425,7 +11425,7 @@
         <v>129</v>
       </c>
       <c r="G137" t="n">
-        <v>634.505609601114</v>
+        <v>634.505455313181</v>
       </c>
       <c r="H137" t="n">
         <v>15000</v>
@@ -11510,7 +11510,7 @@
         <v>129</v>
       </c>
       <c r="G138" t="n">
-        <v>634.505609601114</v>
+        <v>634.505455313181</v>
       </c>
       <c r="H138" t="n">
         <v>15000</v>
@@ -11595,7 +11595,7 @@
         <v>129</v>
       </c>
       <c r="G139" t="n">
-        <v>634.505609601114</v>
+        <v>634.505455313181</v>
       </c>
       <c r="H139" t="n">
         <v>15000</v>
@@ -11754,10 +11754,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.0021</v>
+        <v>0.00215</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0029458586176551</v>
+        <v>0.0029786095838311</v>
       </c>
       <c r="H141" t="n">
         <v>0.0166267337076689</v>
@@ -11768,13 +11768,13 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00175</v>
+        <v>0.00181</v>
       </c>
       <c r="M141" t="n">
-        <v>0.00474</v>
+        <v>0.00487</v>
       </c>
       <c r="N141" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.00829</v>
       </c>
       <c r="O141" t="n">
         <v>1811307.816</v>
@@ -11835,10 +11835,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.0021</v>
+        <v>0.00215</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0029458586176551</v>
+        <v>0.0029786095838311</v>
       </c>
       <c r="H142" t="n">
         <v>0.0166267337076689</v>
@@ -11849,13 +11849,13 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00175</v>
+        <v>0.00181</v>
       </c>
       <c r="M142" t="n">
-        <v>0.00474</v>
+        <v>0.00487</v>
       </c>
       <c r="N142" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.00829</v>
       </c>
       <c r="O142" t="n">
         <v>1811307.816</v>
@@ -11919,7 +11919,7 @@
         <v>0.03565</v>
       </c>
       <c r="G143" t="n">
-        <v>0.076998557348066</v>
+        <v>0.0770157304384073</v>
       </c>
       <c r="H143" t="n">
         <v>0.487</v>
@@ -11930,7 +11930,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.00218</v>
+        <v>0.00226</v>
       </c>
       <c r="M143" t="n">
         <v>0.16375</v>
@@ -12000,7 +12000,7 @@
         <v>0.03565</v>
       </c>
       <c r="G144" t="n">
-        <v>0.076998557348066</v>
+        <v>0.0770157304384073</v>
       </c>
       <c r="H144" t="n">
         <v>0.487</v>
@@ -12011,7 +12011,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.00218</v>
+        <v>0.00226</v>
       </c>
       <c r="M144" t="n">
         <v>0.16375</v>
@@ -12151,21 +12151,21 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.0435</v>
+        <v>0.0437</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0839707263766237</v>
+        <v>0.0839660061411228</v>
       </c>
       <c r="H146" t="n">
         <v>0.495</v>
       </c>
       <c r="I146" t="n">
-        <v>0.2085</v>
+        <v>0.2082</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="M146" t="n">
         <v>0.1765</v>
@@ -12228,21 +12228,21 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.0435</v>
+        <v>0.0437</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0839707263766237</v>
+        <v>0.0839660061411228</v>
       </c>
       <c r="H147" t="n">
         <v>0.495</v>
       </c>
       <c r="I147" t="n">
-        <v>0.2085</v>
+        <v>0.2082</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="M147" t="n">
         <v>0.1765</v>
@@ -12859,7 +12859,7 @@
         <v>0.01</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0114105770377223</v>
+        <v>0.0114122109139538</v>
       </c>
       <c r="H155" t="n">
         <v>0.031</v>
@@ -12940,7 +12940,7 @@
         <v>0.01</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0114105770377223</v>
+        <v>0.0114122109139538</v>
       </c>
       <c r="H156" t="n">
         <v>0.031</v>
@@ -13021,7 +13021,7 @@
         <v>76</v>
       </c>
       <c r="G157" t="n">
-        <v>666.302219770605</v>
+        <v>666.302065482673</v>
       </c>
       <c r="H157" t="n">
         <v>15000</v>
@@ -13106,7 +13106,7 @@
         <v>76</v>
       </c>
       <c r="G158" t="n">
-        <v>666.302219770605</v>
+        <v>666.302065482673</v>
       </c>
       <c r="H158" t="n">
         <v>15000</v>
@@ -13191,7 +13191,7 @@
         <v>76</v>
       </c>
       <c r="G159" t="n">
-        <v>666.302219770605</v>
+        <v>666.302065482673</v>
       </c>
       <c r="H159" t="n">
         <v>15000</v>
@@ -13276,7 +13276,7 @@
         <v>76</v>
       </c>
       <c r="G160" t="n">
-        <v>666.302219770605</v>
+        <v>666.302065482673</v>
       </c>
       <c r="H160" t="n">
         <v>15000</v>
@@ -13435,10 +13435,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00279</v>
+        <v>0.00287</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0034976902902476</v>
+        <v>0.0035473895239474</v>
       </c>
       <c r="H162" t="n">
         <v>0.0166267337076689</v>
@@ -13449,13 +13449,13 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00264</v>
+        <v>0.00271</v>
       </c>
       <c r="M162" t="n">
-        <v>0.00509</v>
+        <v>0.00514</v>
       </c>
       <c r="N162" t="n">
-        <v>0.00715</v>
+        <v>0.00732</v>
       </c>
       <c r="O162" t="n">
         <v>1811307.816</v>
@@ -13516,10 +13516,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00279</v>
+        <v>0.00287</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0034976902902476</v>
+        <v>0.0035473895239474</v>
       </c>
       <c r="H163" t="n">
         <v>0.0166267337076689</v>
@@ -13530,13 +13530,13 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00264</v>
+        <v>0.00271</v>
       </c>
       <c r="M163" t="n">
-        <v>0.00509</v>
+        <v>0.00514</v>
       </c>
       <c r="N163" t="n">
-        <v>0.00715</v>
+        <v>0.00732</v>
       </c>
       <c r="O163" t="n">
         <v>1811307.816</v>
@@ -13600,7 +13600,7 @@
         <v>0.04405</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0868274288781362</v>
+        <v>0.0868474722623835</v>
       </c>
       <c r="H164" t="n">
         <v>0.487</v>
@@ -13611,7 +13611,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
-        <v>0.00312</v>
+        <v>0.0032</v>
       </c>
       <c r="M164" t="n">
         <v>0.1693</v>
@@ -13681,7 +13681,7 @@
         <v>0.04405</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0868274288781362</v>
+        <v>0.0868474722623835</v>
       </c>
       <c r="H165" t="n">
         <v>0.487</v>
@@ -13692,7 +13692,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.00312</v>
+        <v>0.0032</v>
       </c>
       <c r="M165" t="n">
         <v>0.1693</v>
@@ -13832,27 +13832,27 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.0505</v>
+        <v>0.05055</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0940373930432904</v>
+        <v>0.0940510061411228</v>
       </c>
       <c r="H167" t="n">
         <v>0.495</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2275</v>
+        <v>0.22735</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>0.01</v>
+        <v>0.01002</v>
       </c>
       <c r="M167" t="n">
         <v>0.1815</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2064</v>
+        <v>0.20619</v>
       </c>
       <c r="O167" t="n">
         <v>1811307.816</v>
@@ -13909,27 +13909,27 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.0505</v>
+        <v>0.05055</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0940373930432904</v>
+        <v>0.0940510061411228</v>
       </c>
       <c r="H168" t="n">
         <v>0.495</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2275</v>
+        <v>0.22735</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
-        <v>0.01</v>
+        <v>0.01002</v>
       </c>
       <c r="M168" t="n">
         <v>0.1815</v>
       </c>
       <c r="N168" t="n">
-        <v>0.2064</v>
+        <v>0.20619</v>
       </c>
       <c r="O168" t="n">
         <v>1811307.816</v>
@@ -14540,7 +14540,7 @@
         <v>0.012</v>
       </c>
       <c r="G176" t="n">
-        <v>0.012177243704389</v>
+        <v>0.0121788775806205</v>
       </c>
       <c r="H176" t="n">
         <v>0.031</v>
@@ -14621,7 +14621,7 @@
         <v>0.012</v>
       </c>
       <c r="G177" t="n">
-        <v>0.012177243704389</v>
+        <v>0.0121788775806205</v>
       </c>
       <c r="H177" t="n">
         <v>0.031</v>
@@ -14702,7 +14702,7 @@
         <v>91</v>
       </c>
       <c r="G178" t="n">
-        <v>724.69205027908</v>
+        <v>724.691895991147</v>
       </c>
       <c r="H178" t="n">
         <v>15000</v>
@@ -14787,7 +14787,7 @@
         <v>91</v>
       </c>
       <c r="G179" t="n">
-        <v>724.69205027908</v>
+        <v>724.691895991147</v>
       </c>
       <c r="H179" t="n">
         <v>15000</v>
@@ -14872,7 +14872,7 @@
         <v>91</v>
       </c>
       <c r="G180" t="n">
-        <v>724.69205027908</v>
+        <v>724.691895991147</v>
       </c>
       <c r="H180" t="n">
         <v>15000</v>
@@ -14957,7 +14957,7 @@
         <v>91</v>
       </c>
       <c r="G181" t="n">
-        <v>724.69205027908</v>
+        <v>724.691895991147</v>
       </c>
       <c r="H181" t="n">
         <v>15000</v>
@@ -15116,27 +15116,27 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.0034</v>
+        <v>0.00348</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0045156306456213</v>
+        <v>0.0045790990676412</v>
       </c>
       <c r="H183" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I183" t="n">
-        <v>0.01103</v>
+        <v>0.01109</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00294</v>
+        <v>0.00301</v>
       </c>
       <c r="M183" t="n">
-        <v>0.00592</v>
+        <v>0.00602</v>
       </c>
       <c r="N183" t="n">
-        <v>0.008330000000000001</v>
+        <v>0.00835</v>
       </c>
       <c r="O183" t="n">
         <v>1811307.816</v>
@@ -15197,27 +15197,27 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.0034</v>
+        <v>0.00348</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0045156306456213</v>
+        <v>0.0045790990676412</v>
       </c>
       <c r="H184" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I184" t="n">
-        <v>0.01103</v>
+        <v>0.01109</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00294</v>
+        <v>0.00301</v>
       </c>
       <c r="M184" t="n">
-        <v>0.00592</v>
+        <v>0.00602</v>
       </c>
       <c r="N184" t="n">
-        <v>0.008330000000000001</v>
+        <v>0.00835</v>
       </c>
       <c r="O184" t="n">
         <v>1811307.816</v>
@@ -15281,7 +15281,7 @@
         <v>0.099</v>
       </c>
       <c r="G185" t="n">
-        <v>0.100733109908863</v>
+        <v>0.10075605687856</v>
       </c>
       <c r="H185" t="n">
         <v>0.487</v>
@@ -15362,7 +15362,7 @@
         <v>0.099</v>
       </c>
       <c r="G186" t="n">
-        <v>0.100733109908863</v>
+        <v>0.10075605687856</v>
       </c>
       <c r="H186" t="n">
         <v>0.487</v>
@@ -15516,7 +15516,7 @@
         <v>0.11</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1092385553354</v>
+        <v>0.109265621739204</v>
       </c>
       <c r="H188" t="n">
         <v>0.495</v>
@@ -15527,13 +15527,13 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.01224</v>
+        <v>0.01236</v>
       </c>
       <c r="M188" t="n">
         <v>0.195</v>
       </c>
       <c r="N188" t="n">
-        <v>0.2345</v>
+        <v>0.23441</v>
       </c>
       <c r="O188" t="n">
         <v>1811307.816</v>
@@ -15593,7 +15593,7 @@
         <v>0.11</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1092385553354</v>
+        <v>0.109265621739204</v>
       </c>
       <c r="H189" t="n">
         <v>0.495</v>
@@ -15604,13 +15604,13 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.01224</v>
+        <v>0.01236</v>
       </c>
       <c r="M189" t="n">
         <v>0.195</v>
       </c>
       <c r="N189" t="n">
-        <v>0.2345</v>
+        <v>0.23441</v>
       </c>
       <c r="O189" t="n">
         <v>1811307.816</v>
@@ -16221,7 +16221,7 @@
         <v>0.011</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0122141461400566</v>
+        <v>0.0122158077091056</v>
       </c>
       <c r="H197" t="n">
         <v>0.05</v>
@@ -16302,7 +16302,7 @@
         <v>0.011</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0122141461400566</v>
+        <v>0.0122158077091056</v>
       </c>
       <c r="H198" t="n">
         <v>0.05</v>
@@ -16800,24 +16800,24 @@
         <v>0.00353</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0047313079768229</v>
+        <v>0.004793684428141</v>
       </c>
       <c r="H204" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I204" t="n">
-        <v>0.01115</v>
+        <v>0.01119</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.00326</v>
+        <v>0.00332</v>
       </c>
       <c r="M204" t="n">
-        <v>0.00645</v>
+        <v>0.00647</v>
       </c>
       <c r="N204" t="n">
-        <v>0.00876</v>
+        <v>0.00877</v>
       </c>
       <c r="O204" t="n">
         <v>1811307.816</v>
@@ -16881,24 +16881,24 @@
         <v>0.00353</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0047313079768229</v>
+        <v>0.004793684428141</v>
       </c>
       <c r="H205" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I205" t="n">
-        <v>0.01115</v>
+        <v>0.01119</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.00326</v>
+        <v>0.00332</v>
       </c>
       <c r="M205" t="n">
-        <v>0.00645</v>
+        <v>0.00647</v>
       </c>
       <c r="N205" t="n">
-        <v>0.00876</v>
+        <v>0.00877</v>
       </c>
       <c r="O205" t="n">
         <v>1811307.816</v>
@@ -16962,7 +16962,7 @@
         <v>0.113</v>
       </c>
       <c r="G206" t="n">
-        <v>0.111418638914167</v>
+        <v>0.111432830434485</v>
       </c>
       <c r="H206" t="n">
         <v>0.487</v>
@@ -17043,7 +17043,7 @@
         <v>0.113</v>
       </c>
       <c r="G207" t="n">
-        <v>0.111418638914167</v>
+        <v>0.111432830434485</v>
       </c>
       <c r="H207" t="n">
         <v>0.487</v>
@@ -17197,7 +17197,7 @@
         <v>0.115</v>
       </c>
       <c r="G209" t="n">
-        <v>0.120230263430122</v>
+        <v>0.120245772083329</v>
       </c>
       <c r="H209" t="n">
         <v>0.495</v>
@@ -17274,7 +17274,7 @@
         <v>0.115</v>
       </c>
       <c r="G210" t="n">
-        <v>0.120230263430122</v>
+        <v>0.120245772083329</v>
       </c>
       <c r="H210" t="n">
         <v>0.495</v>
@@ -18478,27 +18478,27 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0.00344</v>
+        <v>0.00351</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0046525112626322</v>
+        <v>0.0046993963728207</v>
       </c>
       <c r="H225" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I225" t="n">
-        <v>0.01115</v>
+        <v>0.01119</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>0.00326</v>
+        <v>0.00332</v>
       </c>
       <c r="M225" t="n">
-        <v>0.00661</v>
+        <v>0.00673</v>
       </c>
       <c r="N225" t="n">
-        <v>0.00876</v>
+        <v>0.00877</v>
       </c>
       <c r="O225" t="n">
         <v>1811307.816</v>
@@ -18559,27 +18559,27 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0.00344</v>
+        <v>0.00351</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0046525112626322</v>
+        <v>0.0046993963728207</v>
       </c>
       <c r="H226" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I226" t="n">
-        <v>0.01115</v>
+        <v>0.01119</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
-        <v>0.00326</v>
+        <v>0.00332</v>
       </c>
       <c r="M226" t="n">
-        <v>0.00661</v>
+        <v>0.00673</v>
       </c>
       <c r="N226" t="n">
-        <v>0.00876</v>
+        <v>0.00877</v>
       </c>
       <c r="O226" t="n">
         <v>1811307.816</v>
@@ -18643,7 +18643,7 @@
         <v>0.109</v>
       </c>
       <c r="G227" t="n">
-        <v>0.115165646671997</v>
+        <v>0.115171518413715</v>
       </c>
       <c r="H227" t="n">
         <v>0.487</v>
@@ -18724,7 +18724,7 @@
         <v>0.109</v>
       </c>
       <c r="G228" t="n">
-        <v>0.115165646671997</v>
+        <v>0.115171518413715</v>
       </c>
       <c r="H228" t="n">
         <v>0.487</v>
@@ -18878,7 +18878,7 @@
         <v>0.115</v>
       </c>
       <c r="G230" t="n">
-        <v>0.123679148093671</v>
+        <v>0.123674185353981</v>
       </c>
       <c r="H230" t="n">
         <v>0.495</v>
@@ -18895,7 +18895,7 @@
         <v>0.205</v>
       </c>
       <c r="N230" t="n">
-        <v>0.261</v>
+        <v>0.26089</v>
       </c>
       <c r="O230" t="n">
         <v>1811307.816</v>
@@ -18955,7 +18955,7 @@
         <v>0.115</v>
       </c>
       <c r="G231" t="n">
-        <v>0.123679148093671</v>
+        <v>0.123674185353981</v>
       </c>
       <c r="H231" t="n">
         <v>0.495</v>
@@ -18972,7 +18972,7 @@
         <v>0.205</v>
       </c>
       <c r="N231" t="n">
-        <v>0.261</v>
+        <v>0.26089</v>
       </c>
       <c r="O231" t="n">
         <v>1811307.816</v>
@@ -19745,10 +19745,10 @@
         <v>84.5</v>
       </c>
       <c r="G241" t="n">
-        <v>493.160333855985</v>
+        <v>493.600195506523</v>
       </c>
       <c r="H241" t="n">
-        <v>11000.2993636471</v>
+        <v>11025.8113393783</v>
       </c>
       <c r="I241" t="n">
         <v>1956</v>
@@ -19830,10 +19830,10 @@
         <v>84.5</v>
       </c>
       <c r="G242" t="n">
-        <v>493.160333855985</v>
+        <v>493.600195506523</v>
       </c>
       <c r="H242" t="n">
-        <v>11000.2993636471</v>
+        <v>11025.8113393783</v>
       </c>
       <c r="I242" t="n">
         <v>1956</v>
@@ -19915,10 +19915,10 @@
         <v>84.5</v>
       </c>
       <c r="G243" t="n">
-        <v>493.160333855985</v>
+        <v>493.600195506523</v>
       </c>
       <c r="H243" t="n">
-        <v>11000.2993636471</v>
+        <v>11025.8113393783</v>
       </c>
       <c r="I243" t="n">
         <v>1956</v>
@@ -20000,10 +20000,10 @@
         <v>84.5</v>
       </c>
       <c r="G244" t="n">
-        <v>493.160333855985</v>
+        <v>493.600195506523</v>
       </c>
       <c r="H244" t="n">
-        <v>11000.2993636471</v>
+        <v>11025.8113393783</v>
       </c>
       <c r="I244" t="n">
         <v>1956</v>
@@ -20159,21 +20159,21 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0.00392</v>
+        <v>0.00396</v>
       </c>
       <c r="G246" t="n">
-        <v>0.0047212350059627</v>
+        <v>0.0047531339340789</v>
       </c>
       <c r="H246" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I246" t="n">
-        <v>0.01013</v>
+        <v>0.01025</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
-        <v>0.00478</v>
+        <v>0.00487</v>
       </c>
       <c r="M246" t="n">
         <v>0.00667</v>
@@ -20240,21 +20240,21 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0.00392</v>
+        <v>0.00396</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0047212350059627</v>
+        <v>0.0047531339340789</v>
       </c>
       <c r="H247" t="n">
         <v>0.0370814699699918</v>
       </c>
       <c r="I247" t="n">
-        <v>0.01013</v>
+        <v>0.01025</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>0.00478</v>
+        <v>0.00487</v>
       </c>
       <c r="M247" t="n">
         <v>0.00667</v>
@@ -20324,7 +20324,7 @@
         <v>0.101</v>
       </c>
       <c r="G248" t="n">
-        <v>0.109789937075116</v>
+        <v>0.109801924564706</v>
       </c>
       <c r="H248" t="n">
         <v>0.351</v>
@@ -20405,7 +20405,7 @@
         <v>0.101</v>
       </c>
       <c r="G249" t="n">
-        <v>0.109789937075116</v>
+        <v>0.109801924564706</v>
       </c>
       <c r="H249" t="n">
         <v>0.351</v>
@@ -20559,7 +20559,7 @@
         <v>0.111</v>
       </c>
       <c r="G251" t="n">
-        <v>0.117880512715976</v>
+        <v>0.117884085101463</v>
       </c>
       <c r="H251" t="n">
         <v>0.38</v>
@@ -20636,7 +20636,7 @@
         <v>0.111</v>
       </c>
       <c r="G252" t="n">
-        <v>0.117880512715976</v>
+        <v>0.117884085101463</v>
       </c>
       <c r="H252" t="n">
         <v>0.38</v>
@@ -20995,6 +20995,1687 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.3652</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.3635</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.38455</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G258" t="n">
+        <v>17.515</v>
+      </c>
+      <c r="H258" t="n">
+        <v>75</v>
+      </c>
+      <c r="I258" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M258" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="N258" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.02269230769231</v>
+      </c>
+      <c r="H259" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.0116379310344828</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.01986</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.0116379310344828</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.01986</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="G262" t="n">
+        <v>642.269356530287</v>
+      </c>
+      <c r="H262" t="n">
+        <v>11025.8113393783</v>
+      </c>
+      <c r="I262" t="n">
+        <v>4536</v>
+      </c>
+      <c r="J262" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K262" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L262" t="n">
+        <v>90</v>
+      </c>
+      <c r="M262" t="n">
+        <v>297.76</v>
+      </c>
+      <c r="N262" t="n">
+        <v>799.9400000000001</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="G263" t="n">
+        <v>642.269356530287</v>
+      </c>
+      <c r="H263" t="n">
+        <v>11025.8113393783</v>
+      </c>
+      <c r="I263" t="n">
+        <v>4536</v>
+      </c>
+      <c r="J263" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K263" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L263" t="n">
+        <v>90</v>
+      </c>
+      <c r="M263" t="n">
+        <v>297.76</v>
+      </c>
+      <c r="N263" t="n">
+        <v>799.9400000000001</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="G264" t="n">
+        <v>642.269356530287</v>
+      </c>
+      <c r="H264" t="n">
+        <v>11025.8113393783</v>
+      </c>
+      <c r="I264" t="n">
+        <v>4536</v>
+      </c>
+      <c r="J264" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K264" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L264" t="n">
+        <v>90</v>
+      </c>
+      <c r="M264" t="n">
+        <v>297.76</v>
+      </c>
+      <c r="N264" t="n">
+        <v>799.9400000000001</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="G265" t="n">
+        <v>642.269356530287</v>
+      </c>
+      <c r="H265" t="n">
+        <v>11025.8113393783</v>
+      </c>
+      <c r="I265" t="n">
+        <v>4536</v>
+      </c>
+      <c r="J265" t="n">
+        <v>12.0689655172414</v>
+      </c>
+      <c r="K265" t="n">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="L265" t="n">
+        <v>90</v>
+      </c>
+      <c r="M265" t="n">
+        <v>297.76</v>
+      </c>
+      <c r="N265" t="n">
+        <v>799.9400000000001</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>98</v>
+      </c>
+      <c r="G266" t="n">
+        <v>97.46599999999999</v>
+      </c>
+      <c r="H266" t="n">
+        <v>110</v>
+      </c>
+      <c r="I266" t="n">
+        <v>110</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>102</v>
+      </c>
+      <c r="M266" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="N266" t="n">
+        <v>110</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.00353</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.0049276624685604</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.0370814699699918</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.01119</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.00759</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.01058</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>0.00353</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0049276624685604</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.0370814699699918</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.01119</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.00759</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.01058</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.114450122677834</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0.2974</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.24456</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.28302</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0.0975</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.114450122677834</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.2974</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.24456</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.28302</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="G271" t="n">
+        <v>5.156</v>
+      </c>
+      <c r="H271" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="M271" t="n">
+        <v>5.799</v>
+      </c>
+      <c r="N271" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0.1055</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.122616843722153</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0.29818</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1055</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.122616843722153</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0.0335</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.2562</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.29818</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.26948275862069</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.4086</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.26948275862069</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.4086</v>
+      </c>
+      <c r="O275" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P275" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.07517241379310351</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.06412</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>0.0255</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.07517241379310351</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.06412</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
+++ b/state_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
@@ -570,7 +570,7 @@
         <v>0.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.29589783792135</v>
+        <v>1.31042729602687</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -584,7 +584,7 @@
         <v>2.015</v>
       </c>
       <c r="M2" t="n">
-        <v>2.6</v>
+        <v>2.8158</v>
       </c>
       <c r="N2" t="n">
         <v>3.768</v>
@@ -1631,7 +1631,7 @@
         <v>0.43</v>
       </c>
       <c r="G15" t="n">
-        <v>1.2323081194581</v>
+        <v>1.24774566869522</v>
       </c>
       <c r="H15" t="n">
         <v>5.5</v>
@@ -1645,7 +1645,7 @@
         <v>2.3</v>
       </c>
       <c r="M15" t="n">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="N15" t="n">
         <v>3.566</v>
@@ -3000,7 +3000,7 @@
         <v>0.445</v>
       </c>
       <c r="G32" t="n">
-        <v>1.40240431213611</v>
+        <v>1.41924527494024</v>
       </c>
       <c r="H32" t="n">
         <v>5.8</v>
@@ -3014,7 +3014,7 @@
         <v>2.45</v>
       </c>
       <c r="M32" t="n">
-        <v>3.108</v>
+        <v>3.18816</v>
       </c>
       <c r="N32" t="n">
         <v>4</v>
@@ -4450,13 +4450,13 @@
         <v>0.455</v>
       </c>
       <c r="G50" t="n">
-        <v>1.83985657271385</v>
+        <v>1.77159891136852</v>
       </c>
       <c r="H50" t="n">
-        <v>10.9049862235177</v>
+        <v>9.20018218375643</v>
       </c>
       <c r="I50" t="n">
-        <v>6.88069</v>
+        <v>6.35374</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6054,13 +6054,13 @@
         <v>0.85</v>
       </c>
       <c r="G70" t="n">
-        <v>2.01715965297862</v>
+        <v>1.9422427075996</v>
       </c>
       <c r="H70" t="n">
-        <v>10.9049862235177</v>
+        <v>9.20018218375643</v>
       </c>
       <c r="I70" t="n">
-        <v>7.74525</v>
+        <v>6.79674</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -7735,13 +7735,13 @@
         <v>1.125</v>
       </c>
       <c r="G91" t="n">
-        <v>2.54978694229807</v>
+        <v>2.43765173277097</v>
       </c>
       <c r="H91" t="n">
-        <v>10.9049862235177</v>
+        <v>9.4</v>
       </c>
       <c r="I91" t="n">
-        <v>9.97822</v>
+        <v>8.963139999999999</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7752,7 +7752,7 @@
         <v>4.788</v>
       </c>
       <c r="N91" t="n">
-        <v>8.608000000000001</v>
+        <v>7.52768</v>
       </c>
       <c r="O91" t="n">
         <v>1811307.816</v>
@@ -9416,13 +9416,13 @@
         <v>1.8</v>
       </c>
       <c r="G112" t="n">
-        <v>2.71186553943935</v>
+        <v>2.61410663882598</v>
       </c>
       <c r="H112" t="n">
-        <v>10.9049862235177</v>
+        <v>9.4</v>
       </c>
       <c r="I112" t="n">
-        <v>9.79752</v>
+        <v>8.666840000000001</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9433,7 +9433,7 @@
         <v>4.874</v>
       </c>
       <c r="N112" t="n">
-        <v>7.168</v>
+        <v>6.64169</v>
       </c>
       <c r="O112" t="n">
         <v>1811307.816</v>
@@ -11097,13 +11097,13 @@
         <v>0.9</v>
       </c>
       <c r="G133" t="n">
-        <v>2.35848185458865</v>
+        <v>2.26549168083447</v>
       </c>
       <c r="H133" t="n">
-        <v>10.9049862235177</v>
+        <v>9.4</v>
       </c>
       <c r="I133" t="n">
-        <v>9.725250000000001</v>
+        <v>8.54832</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11114,7 +11114,7 @@
         <v>4.653</v>
       </c>
       <c r="N133" t="n">
-        <v>6.553</v>
+        <v>6.24829</v>
       </c>
       <c r="O133" t="n">
         <v>1811307.816</v>
@@ -19745,10 +19745,10 @@
         <v>84.5</v>
       </c>
       <c r="G241" t="n">
-        <v>493.600195506523</v>
+        <v>509.304189078905</v>
       </c>
       <c r="H241" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I241" t="n">
         <v>1956</v>
@@ -19830,10 +19830,10 @@
         <v>84.5</v>
       </c>
       <c r="G242" t="n">
-        <v>493.600195506523</v>
+        <v>509.304189078905</v>
       </c>
       <c r="H242" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I242" t="n">
         <v>1956</v>
@@ -19915,10 +19915,10 @@
         <v>84.5</v>
       </c>
       <c r="G243" t="n">
-        <v>493.600195506523</v>
+        <v>509.304189078905</v>
       </c>
       <c r="H243" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I243" t="n">
         <v>1956</v>
@@ -20000,10 +20000,10 @@
         <v>84.5</v>
       </c>
       <c r="G244" t="n">
-        <v>493.600195506523</v>
+        <v>509.304189078905</v>
       </c>
       <c r="H244" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I244" t="n">
         <v>1956</v>
@@ -21426,10 +21426,10 @@
         <v>90.5</v>
       </c>
       <c r="G262" t="n">
-        <v>642.269356530287</v>
+        <v>667.956936110285</v>
       </c>
       <c r="H262" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I262" t="n">
         <v>4536</v>
@@ -21511,10 +21511,10 @@
         <v>90.5</v>
       </c>
       <c r="G263" t="n">
-        <v>642.269356530287</v>
+        <v>667.956936110285</v>
       </c>
       <c r="H263" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I263" t="n">
         <v>4536</v>
@@ -21596,10 +21596,10 @@
         <v>90.5</v>
       </c>
       <c r="G264" t="n">
-        <v>642.269356530287</v>
+        <v>667.956936110285</v>
       </c>
       <c r="H264" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I264" t="n">
         <v>4536</v>
@@ -21681,10 +21681,10 @@
         <v>90.5</v>
       </c>
       <c r="G265" t="n">
-        <v>642.269356530287</v>
+        <v>667.956936110285</v>
       </c>
       <c r="H265" t="n">
-        <v>11025.8113393783</v>
+        <v>11936.6429665765</v>
       </c>
       <c r="I265" t="n">
         <v>4536</v>
